--- a/Inputs/JRC_EU_TIMES/ProRes1/TIMES_Energy_HROR.xlsx
+++ b/Inputs/JRC_EU_TIMES/ProRes1/TIMES_Energy_HROR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\OneDrive - Politecnico di Milano\Università\Tesi (OneDrive)\JRC-EU-TIMES\Data\PROres\PROres raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10459618_polimi_it/Documents/Università/Tesi (OneDrive)/Final Simulations Dispa-SET/JRC-EU-TIMES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31A47DEF-050C-4512-9A34-D352A9517BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D0766BD-D1ED-40F1-9939-FC1EFFAC7D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{23606D94-D28F-4692-B999-4DE63A0C610F}"/>
+    <workbookView xWindow="2070" yWindow="1125" windowWidth="14670" windowHeight="8325" xr2:uid="{4A4D67A4-FBD8-4BBB-B1B6-C6F7A6CD2A22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,13 +35,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
+    <t>Unit - activity1</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
     <t>PJ</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>2050</t>
   </si>
   <si>
     <t>AT</t>
@@ -159,16 +161,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -486,17 +491,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CF2DB6-639B-46A2-B640-3D4DDEC911BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBF696D-CBC3-4BD2-BBFC-0F9DDD2AEF91}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,12 +511,12 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -521,7 +524,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
@@ -529,7 +532,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
@@ -537,7 +540,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
@@ -545,7 +548,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
@@ -553,7 +556,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
@@ -561,7 +564,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
@@ -569,7 +572,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
@@ -577,7 +580,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
@@ -585,7 +588,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
@@ -593,7 +596,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
@@ -601,7 +604,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
@@ -609,7 +612,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
@@ -617,7 +620,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
@@ -625,7 +628,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1">
@@ -633,7 +636,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
@@ -641,7 +644,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1">
@@ -649,7 +652,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1">
@@ -657,7 +660,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1">
@@ -665,7 +668,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1">
@@ -673,7 +676,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1">
@@ -681,7 +684,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1">
@@ -689,7 +692,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1">
@@ -700,4 +703,278 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BA58F2CACE833A4EAC3C2718D7553EBC" ma:contentTypeVersion="13" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="bb63102ff0d9eda75d0b4de88b67103d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7880897e-52c6-4ffd-85c8-5c6950347fc0" xmlns:ns4="8c824e80-41b8-4a07-a4d9-9d9814734933" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d343f4382375feb5aaefc2a566ff9801" ns3:_="" ns4:_="">
+    <xsd:import namespace="7880897e-52c6-4ffd-85c8-5c6950347fc0"/>
+    <xsd:import namespace="8c824e80-41b8-4a07-a4d9-9d9814734933"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7880897e-52c6-4ffd-85c8-5c6950347fc0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithDetails" ma:index="8" nillable="true" ma:displayName="Condiviso con dettagli" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="9" nillable="true" ma:displayName="Condiviso con" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Hash suggerimento condivisione" ma:description="" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8c824e80-41b8-4a07-a4d9-9d9814734933" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E1D666A-8F53-4DEC-A14A-FF697D982756}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7880897e-52c6-4ffd-85c8-5c6950347fc0"/>
+    <ds:schemaRef ds:uri="8c824e80-41b8-4a07-a4d9-9d9814734933"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{725924AA-757B-423C-85D3-5134FCE3914B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0DA747A-AF62-4603-8A07-EF7B693EECA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>